--- a/NformTester/NformTester/keywordscripts/TST1000_UserCannotChangePassword.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1000_UserCannotChangePassword.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7301" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7319" uniqueCount="815">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3663,6 +3663,22 @@
   </si>
   <si>
     <t>Equal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4603,10 +4619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B6" activeCellId="1" sqref="B5 B6"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4827,7 +4843,7 @@
         <v>756</v>
       </c>
       <c r="B7" s="3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -4924,26 +4940,18 @@
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>802</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="J10" s="12" t="b">
-        <v>0</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -4967,13 +4975,13 @@
         <v>248</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -4990,27 +4998,33 @@
         <v>11</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="16"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" ht="15">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>762</v>
       </c>
@@ -5018,15 +5032,27 @@
       <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>801</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="D13" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="J13" s="12" t="b">
+        <v>0</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -5044,17 +5070,17 @@
       <c r="D14" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
+      <c r="E14" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -5073,11 +5099,11 @@
       <c r="D15" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>19</v>
+      <c r="E15" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>2</v>
@@ -5091,7 +5117,7 @@
       <c r="N15" s="16"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="15">
       <c r="A16" s="2" t="s">
         <v>765</v>
       </c>
@@ -5099,22 +5125,14 @@
       <c r="C16" s="4">
         <v>15</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>804</v>
-      </c>
-      <c r="I16" s="12"/>
+      <c r="D16" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -5133,19 +5151,17 @@
       <c r="D17" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>230</v>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="I17" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -5164,19 +5180,17 @@
       <c r="D18" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>230</v>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="I18" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -5201,13 +5215,15 @@
         <v>230</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="I19" s="12"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -5229,16 +5245,18 @@
         <v>793</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -5260,15 +5278,17 @@
         <v>793</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>805</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -5288,24 +5308,20 @@
         <v>21</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>788</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>0</v>
+        <v>793</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>791</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -5326,16 +5342,16 @@
         <v>793</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -5357,21 +5373,21 @@
         <v>793</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="15"/>
+      <c r="N24" s="16"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15">
@@ -5398,7 +5414,7 @@
         <v>785</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>791</v>
@@ -5414,19 +5430,19 @@
         <v>25</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>793</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -5434,23 +5450,29 @@
       <c r="N26" s="16"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" ht="15">
+    <row r="27" spans="1:15">
       <c r="C27" s="4">
         <v>26</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>806</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="D27" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="16"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:15">
@@ -5458,20 +5480,24 @@
         <v>27</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+        <v>789</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>791</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -5483,13 +5509,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>2</v>
@@ -5503,25 +5529,17 @@
       <c r="N29" s="16"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="15">
       <c r="C30" s="4">
         <v>29</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>785</v>
-      </c>
+      <c r="D30" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -5537,16 +5555,16 @@
       <c r="D31" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>235</v>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5562,17 +5580,17 @@
       <c r="D32" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>248</v>
+      <c r="E32" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -5585,17 +5603,21 @@
         <v>32</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+        <v>235</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -5611,16 +5633,16 @@
         <v>793</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -5639,10 +5661,10 @@
         <v>248</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -5658,19 +5680,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5678,16 +5698,22 @@
       <c r="N36" s="16"/>
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="3:15" ht="15">
+    <row r="37" spans="3:15">
       <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>807</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="D37" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="4"/>
@@ -5702,13 +5728,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>2</v>
@@ -5727,48 +5753,36 @@
         <v>38</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>799</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="J39" s="12" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="16"/>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="3:15">
+    <row r="40" spans="3:15" ht="15">
       <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D40" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="4"/>
@@ -5778,16 +5792,22 @@
       <c r="N40" s="16"/>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="3:15" ht="15">
+    <row r="41" spans="3:15">
       <c r="C41" s="4">
         <v>40</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="D41" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="4"/>
@@ -5802,20 +5822,26 @@
         <v>41</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E42" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="J42" s="12" t="b">
+        <v>0</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -5827,19 +5853,19 @@
         <v>42</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E43" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5847,26 +5873,18 @@
       <c r="N43" s="16"/>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" ht="15">
       <c r="C44" s="4">
         <v>43</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="I44" s="4"/>
+      <c r="D44" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -5881,16 +5899,16 @@
       <c r="D45" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>235</v>
+      <c r="E45" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -5906,17 +5924,17 @@
       <c r="D46" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>248</v>
+      <c r="E46" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -5929,17 +5947,21 @@
         <v>46</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
+        <v>235</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -5955,16 +5977,16 @@
         <v>793</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -5983,10 +6005,10 @@
         <v>248</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -6002,20 +6024,26 @@
         <v>49</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="J50" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -6027,19 +6055,17 @@
         <v>50</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -6054,17 +6080,17 @@
       <c r="D52" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>19</v>
+      <c r="E52" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="H52" s="12"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="12"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -6080,17 +6106,15 @@
         <v>793</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -6107,18 +6131,16 @@
         <v>793</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>804</v>
-      </c>
-      <c r="I54" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -6133,19 +6155,17 @@
       <c r="D55" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>230</v>
+      <c r="E55" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>804</v>
-      </c>
-      <c r="I55" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -6160,11 +6180,11 @@
       <c r="D56" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>230</v>
+      <c r="E56" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>2</v>
@@ -6179,12 +6199,24 @@
       <c r="O56" s="11"/>
     </row>
     <row r="57" spans="3:15">
-      <c r="C57" s="4"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="12"/>
+      <c r="C57" s="4">
+        <v>56</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>805</v>
+      </c>
       <c r="I57" s="12"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -6193,9 +6225,102 @@
       <c r="N57" s="16"/>
       <c r="O57" s="11"/>
     </row>
+    <row r="58" spans="3:15">
+      <c r="C58" s="4">
+        <v>57</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="11"/>
+    </row>
+    <row r="59" spans="3:15">
+      <c r="C59" s="4">
+        <v>58</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="16"/>
+    </row>
+    <row r="60" spans="3:15">
+      <c r="C60" s="4">
+        <v>59</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="16"/>
+    </row>
+    <row r="61" spans="3:15">
+      <c r="C61" s="4">
+        <v>60</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N57">
+  <conditionalFormatting sqref="N2:N61">
     <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6204,16 +6329,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42:D57 D14:D26 D6:D12 D28:D36 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D17:D29 D31:D39 D45:D61 D6:D15">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F61">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G61">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E61">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
